--- a/data/trans_orig/P47A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>32806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23320</v>
+        <v>23779</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43196</v>
+        <v>43546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06640070715411897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04720009113127954</v>
+        <v>0.04812989744440605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08743045791713606</v>
+        <v>0.08813751737695179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -765,19 +765,19 @@
         <v>26356</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16432</v>
+        <v>17114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35785</v>
+        <v>36781</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05648725139407682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03521712868581721</v>
+        <v>0.03668015588299461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07669489425513125</v>
+        <v>0.07882981114995825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -786,19 +786,19 @@
         <v>59162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46461</v>
+        <v>45839</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75119</v>
+        <v>75756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06158575934310138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04836385192121109</v>
+        <v>0.04771682113792536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0781963088366233</v>
+        <v>0.07885879417983968</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>400593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384657</v>
+        <v>382904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417477</v>
+        <v>416135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8108115951902631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7785572953615171</v>
+        <v>0.7750088506143538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8449861565630068</v>
+        <v>0.8422686462263808</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>354</v>
@@ -836,19 +836,19 @@
         <v>340678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321894</v>
+        <v>321735</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357875</v>
+        <v>359220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7301500900302798</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6898918295518297</v>
+        <v>0.6895502790654696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7670083197469209</v>
+        <v>0.7698900656271629</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -857,19 +857,19 @@
         <v>741271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>716139</v>
+        <v>714758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766221</v>
+        <v>765862</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7716344457577837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7454734401002884</v>
+        <v>0.7440360277246181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7976066992673215</v>
+        <v>0.797232953429507</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>54101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41066</v>
+        <v>41807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68649</v>
+        <v>69702</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1095020194719867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08311931422605681</v>
+        <v>0.08461784366454632</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1389480351266134</v>
+        <v>0.1410784202590833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>88</v>
@@ -907,19 +907,19 @@
         <v>82451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67374</v>
+        <v>66543</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>98395</v>
+        <v>98410</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1767105508249082</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1443981514845839</v>
+        <v>0.1426169388824395</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2108837442675291</v>
+        <v>0.2109159961621141</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -928,19 +928,19 @@
         <v>136552</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115605</v>
+        <v>116040</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159104</v>
+        <v>156560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1421450834803825</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1203400559765024</v>
+        <v>0.1207929257795522</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1656210451978889</v>
+        <v>0.1629725211333107</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2796</v>
+        <v>2623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12341</v>
+        <v>12542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0132856781836312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005658216706310009</v>
+        <v>0.005309841659303732</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02497902032053834</v>
+        <v>0.02538541572180482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -978,19 +978,19 @@
         <v>17101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10612</v>
+        <v>10214</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26132</v>
+        <v>27322</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03665210775073528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02274453362843054</v>
+        <v>0.02189083822234546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05600706435570213</v>
+        <v>0.05855758123943049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -999,19 +999,19 @@
         <v>23665</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16095</v>
+        <v>15442</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34934</v>
+        <v>33402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02463471141873245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0167546733116401</v>
+        <v>0.01607463993977782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03636534908426337</v>
+        <v>0.03477016733612594</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>44139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32959</v>
+        <v>31768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59697</v>
+        <v>58019</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06001340090424188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04481242714189871</v>
+        <v>0.04319300669440801</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0811670540043147</v>
+        <v>0.07888486897299131</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -1124,19 +1124,19 @@
         <v>32895</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22883</v>
+        <v>22825</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46247</v>
+        <v>45997</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05268084462552834</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03664696398424602</v>
+        <v>0.03655340317790457</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07406452765845346</v>
+        <v>0.07366303857383431</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -1145,19 +1145,19 @@
         <v>77034</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60576</v>
+        <v>62309</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>94304</v>
+        <v>97645</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05664655903885963</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04454406121390156</v>
+        <v>0.04581856399975823</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06934550550551702</v>
+        <v>0.07180275649207656</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>510496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>485729</v>
+        <v>484383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>534658</v>
+        <v>534590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6940912384186472</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6604169722325307</v>
+        <v>0.6585857758515226</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7269419024351192</v>
+        <v>0.7268498604310051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>377</v>
@@ -1195,19 +1195,19 @@
         <v>399317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>373509</v>
+        <v>375281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>424481</v>
+        <v>424929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6394998277751139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5981678609124156</v>
+        <v>0.6010063073722988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6798000202596816</v>
+        <v>0.6805169442144824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>864</v>
@@ -1216,19 +1216,19 @@
         <v>909813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>873685</v>
+        <v>869382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>946966</v>
+        <v>943492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6690248577652186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6424585024162163</v>
+        <v>0.6392938933498571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6963448076243076</v>
+        <v>0.6937907916727493</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>151529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130686</v>
+        <v>130559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173637</v>
+        <v>176056</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2060244631812469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1776855575192706</v>
+        <v>0.1775135849719136</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2360842755140354</v>
+        <v>0.2393720388175254</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1266,19 +1266,19 @@
         <v>148800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125990</v>
+        <v>126473</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169692</v>
+        <v>171502</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2383003756388776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.201771661233453</v>
+        <v>0.2025445918865521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2717589018212249</v>
+        <v>0.27465795209935</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>287</v>
@@ -1287,19 +1287,19 @@
         <v>300328</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>268110</v>
+        <v>270265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>330479</v>
+        <v>335438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.220844382616605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1971527521665365</v>
+        <v>0.198737300287278</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2430151839309283</v>
+        <v>0.2466619397298758</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>29325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20070</v>
+        <v>19447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40757</v>
+        <v>41357</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03987089749586403</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02728822303304123</v>
+        <v>0.02644056074947352</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05541536765243187</v>
+        <v>0.05623085606758058</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1337,19 +1337,19 @@
         <v>43409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31325</v>
+        <v>31693</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57859</v>
+        <v>59176</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06951895196048011</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05016684283671613</v>
+        <v>0.05075577671668016</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09266056647828473</v>
+        <v>0.09476959130942811</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -1358,19 +1358,19 @@
         <v>72734</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57776</v>
+        <v>56772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90336</v>
+        <v>93434</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05348420057931687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04248520046347517</v>
+        <v>0.04174655462782416</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06642789229367134</v>
+        <v>0.06870634864637845</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>28782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19244</v>
+        <v>18619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43397</v>
+        <v>40513</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04525159219888642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0302556147771871</v>
+        <v>0.02927301389178971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06823054080509865</v>
+        <v>0.06369592546582674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1483,19 +1483,19 @@
         <v>27529</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19018</v>
+        <v>18981</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40158</v>
+        <v>40174</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03991145567232113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02757252339847146</v>
+        <v>0.02751942892264633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05822129058661147</v>
+        <v>0.05824456171819487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -1504,19 +1504,19 @@
         <v>56310</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42653</v>
+        <v>42612</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73927</v>
+        <v>73595</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04247335055483623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03217231462102198</v>
+        <v>0.03214084364757941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05576145785784369</v>
+        <v>0.05551058924442448</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>404243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>379539</v>
+        <v>375542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>427553</v>
+        <v>425987</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.635569344157517</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5967277908640654</v>
+        <v>0.5904445641586278</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6722188021342288</v>
+        <v>0.6697566636574626</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>398</v>
@@ -1554,19 +1554,19 @@
         <v>414410</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>387529</v>
+        <v>388864</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>439255</v>
+        <v>439821</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6008168951103002</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5618450130803009</v>
+        <v>0.5637804314005695</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6368375957709848</v>
+        <v>0.6376578466303644</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>784</v>
@@ -1575,19 +1575,19 @@
         <v>818653</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>780100</v>
+        <v>782820</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>855896</v>
+        <v>852583</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6174891507588268</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5884100034504371</v>
+        <v>0.5904612590605556</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6455808872900665</v>
+        <v>0.643081454224674</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>173834</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>151237</v>
+        <v>152667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196398</v>
+        <v>199185</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2733103319520021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2377809631278288</v>
+        <v>0.2400301157969993</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3087856917707874</v>
+        <v>0.3131677360074817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -1625,19 +1625,19 @@
         <v>188673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168110</v>
+        <v>166238</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214545</v>
+        <v>212870</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2735408705800849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2437286315664923</v>
+        <v>0.2410139094988628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.311049625100373</v>
+        <v>0.3086223439095326</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>347</v>
@@ -1646,19 +1646,19 @@
         <v>362508</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>332953</v>
+        <v>328225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399072</v>
+        <v>394862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2734302712108423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2511381264732146</v>
+        <v>0.2475714917714262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3010098358860453</v>
+        <v>0.2978340930829632</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>29174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19445</v>
+        <v>19968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40423</v>
+        <v>41956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04586873169159447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03057282084143218</v>
+        <v>0.03139495758856944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06355526564087875</v>
+        <v>0.06596557159206849</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1696,19 +1696,19 @@
         <v>59132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45754</v>
+        <v>44983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77393</v>
+        <v>73903</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08573077863729377</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06633418971768956</v>
+        <v>0.06521689768826085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1122057262899799</v>
+        <v>0.1071454987149353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -1717,19 +1717,19 @@
         <v>88306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70192</v>
+        <v>71739</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>108064</v>
+        <v>108044</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06660722747549465</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05294407507294912</v>
+        <v>0.05411087020780385</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08150977930883772</v>
+        <v>0.0814949502561845</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>17440</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9771</v>
+        <v>10223</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28549</v>
+        <v>28667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03359339303187805</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01882072806074262</v>
+        <v>0.01969259660262039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05499305090989505</v>
+        <v>0.05521862391493765</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1842,19 +1842,19 @@
         <v>9136</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4179</v>
+        <v>4371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16850</v>
+        <v>16224</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0177842596341771</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00813527741842715</v>
+        <v>0.008508507388872733</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03279810641701773</v>
+        <v>0.03158116156987008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1863,19 +1863,19 @@
         <v>26576</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18072</v>
+        <v>17974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40028</v>
+        <v>37752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02573024844840137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01749660943646805</v>
+        <v>0.01740196366765458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03875354110886887</v>
+        <v>0.03654967990386491</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>270809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247230</v>
+        <v>247595</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292240</v>
+        <v>293167</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5216426514574329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4762241734713002</v>
+        <v>0.4769266656201242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5629224740260625</v>
+        <v>0.5647097642992868</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>266</v>
@@ -1913,19 +1913,19 @@
         <v>276880</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252332</v>
+        <v>254786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299015</v>
+        <v>301988</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5389541497140818</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4911708524457886</v>
+        <v>0.4959478360074228</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5820414363726859</v>
+        <v>0.5878292082219841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>517</v>
@@ -1934,19 +1934,19 @@
         <v>547689</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513626</v>
+        <v>517959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>581148</v>
+        <v>581972</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5302530420667265</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4972741955895404</v>
+        <v>0.5014693270154206</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5626468206554063</v>
+        <v>0.563444499948401</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>179663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>160427</v>
+        <v>159327</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>202529</v>
+        <v>202393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3460729913540344</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3090197764446679</v>
+        <v>0.3069015759058623</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3901180125392414</v>
+        <v>0.389856049550878</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>161</v>
@@ -1984,19 +1984,19 @@
         <v>163811</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>143386</v>
+        <v>142053</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>185498</v>
+        <v>185378</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3188632596809032</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2791042045601729</v>
+        <v>0.2765110499058301</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3610781099056383</v>
+        <v>0.360844224182234</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>333</v>
@@ -2005,19 +2005,19 @@
         <v>343474</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>314298</v>
+        <v>312074</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>375159</v>
+        <v>372734</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3325394187766438</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3042920376268965</v>
+        <v>0.3021395119384289</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3632155731518513</v>
+        <v>0.3608678428628924</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>51235</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38695</v>
+        <v>38944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67480</v>
+        <v>67580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09869096415665463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07453642175553175</v>
+        <v>0.07501558269866523</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1299827412827487</v>
+        <v>0.1301741546709454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -2055,19 +2055,19 @@
         <v>63908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50879</v>
+        <v>49115</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79073</v>
+        <v>78552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1243983309708378</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09903776187243871</v>
+        <v>0.09560424293688893</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1539187129396533</v>
+        <v>0.1529032247769072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2076,19 +2076,19 @@
         <v>115143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95984</v>
+        <v>96241</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135206</v>
+        <v>136697</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1114772907082282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09292808872004198</v>
+        <v>0.0931767448045791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1309012547813845</v>
+        <v>0.1323449051569549</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>5659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2054</v>
+        <v>1976</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12586</v>
+        <v>11888</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0147346530748907</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005348051741986755</v>
+        <v>0.005144506194737304</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03277280947491979</v>
+        <v>0.03095649114991268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2201,19 +2201,19 @@
         <v>5118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12014</v>
+        <v>12027</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01272402575116036</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004859932604257727</v>
+        <v>0.004872876153564726</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0298669448640611</v>
+        <v>0.02989851974313178</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2222,19 +2222,19 @@
         <v>10777</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5787</v>
+        <v>5620</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18297</v>
+        <v>18154</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01370605562892949</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007360146147298596</v>
+        <v>0.007147788672990468</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02327045812143453</v>
+        <v>0.02308834484291363</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>198118</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>179117</v>
+        <v>179203</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>215959</v>
+        <v>219216</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5158838381436668</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4664067778497106</v>
+        <v>0.466630238539252</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5623403330551541</v>
+        <v>0.5708210177177941</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -2272,19 +2272,19 @@
         <v>172935</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>152431</v>
+        <v>151157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193470</v>
+        <v>192160</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4299225592295252</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3789478519815155</v>
+        <v>0.3757825546658728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4809722283811074</v>
+        <v>0.4777152076093545</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>364</v>
@@ -2293,19 +2293,19 @@
         <v>371053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>343731</v>
+        <v>345870</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>397235</v>
+        <v>403512</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4719077363076488</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4371593874570617</v>
+        <v>0.4398801180654893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5052057432043163</v>
+        <v>0.5131891278098091</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>130479</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113625</v>
+        <v>112458</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151368</v>
+        <v>148866</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3397562323593537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2958699537256018</v>
+        <v>0.2928315081863795</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3941503366332718</v>
+        <v>0.3876358328068377</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>146</v>
@@ -2343,19 +2343,19 @@
         <v>148564</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128725</v>
+        <v>129718</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169724</v>
+        <v>167980</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3693345800357412</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3200146959584948</v>
+        <v>0.3224843034201334</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4219390581422581</v>
+        <v>0.4176051688434785</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>282</v>
@@ -2364,19 +2364,19 @@
         <v>279042</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>251498</v>
+        <v>252491</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>305979</v>
+        <v>305439</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3548879340509624</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3198564495636792</v>
+        <v>0.3211202923887185</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3891462749680559</v>
+        <v>0.3884595766732899</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>49781</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>37733</v>
+        <v>37943</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>63585</v>
+        <v>64660</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1296252764220888</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09825471207280422</v>
+        <v>0.09880092601993951</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1655712304455491</v>
+        <v>0.1683695508563781</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>76</v>
@@ -2414,19 +2414,19 @@
         <v>75630</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>61184</v>
+        <v>59601</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>93636</v>
+        <v>91713</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1880188349835733</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1521056103526157</v>
+        <v>0.1481697035579241</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2327833278396654</v>
+        <v>0.2280018301911969</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>126</v>
@@ -2435,19 +2435,19 @@
         <v>125411</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>105969</v>
+        <v>105575</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>146983</v>
+        <v>145947</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1594982740124593</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1347717857515979</v>
+        <v>0.1342711945099289</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1869335251348111</v>
+        <v>0.1856161960769448</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>7904</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3511</v>
+        <v>3362</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15488</v>
+        <v>16269</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02701290206043733</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01199852312323318</v>
+        <v>0.01148983839785977</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05293561208159267</v>
+        <v>0.05560356681183286</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -2560,19 +2560,19 @@
         <v>5426</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1906</v>
+        <v>1961</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10912</v>
+        <v>11377</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01582189849737865</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005557690801456579</v>
+        <v>0.005719258841319747</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03181890530019456</v>
+        <v>0.03317547451714434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2581,19 +2581,19 @@
         <v>13329</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7472</v>
+        <v>7148</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22216</v>
+        <v>22677</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02097407759232122</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01175788947169315</v>
+        <v>0.01124824425220164</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03495752856641133</v>
+        <v>0.03568311480731535</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>154358</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>136996</v>
+        <v>136452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>170839</v>
+        <v>169559</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.52757132452291</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4682306284888438</v>
+        <v>0.4663692594548344</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5839007417798944</v>
+        <v>0.5795235468759334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>125</v>
@@ -2631,19 +2631,19 @@
         <v>115250</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>99254</v>
+        <v>98573</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>131695</v>
+        <v>131210</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3360718133005959</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2894260960172706</v>
+        <v>0.2874388845043017</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3840236254615574</v>
+        <v>0.382609755371119</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>284</v>
@@ -2652,19 +2652,19 @@
         <v>269609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>245317</v>
+        <v>247932</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>293420</v>
+        <v>295914</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4242354684055061</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3860111666401708</v>
+        <v>0.3901271747663939</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4617031627273424</v>
+        <v>0.4656270694337857</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>98568</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83793</v>
+        <v>84521</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>114579</v>
+        <v>114476</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3368905096375586</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2863915587105414</v>
+        <v>0.2888789703635848</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3916111862544456</v>
+        <v>0.3912587388439477</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>152</v>
@@ -2702,19 +2702,19 @@
         <v>141979</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>125423</v>
+        <v>126889</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>159504</v>
+        <v>163430</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4140115332091835</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.365735953617819</v>
+        <v>0.3700111384878735</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4651153709446508</v>
+        <v>0.4765649844721335</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>255</v>
@@ -2723,19 +2723,19 @@
         <v>240547</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>218355</v>
+        <v>217028</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>264457</v>
+        <v>263454</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3785061093044038</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3435867131352501</v>
+        <v>0.3414990538387401</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4161294520872094</v>
+        <v>0.4145513577129485</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>31753</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23142</v>
+        <v>23118</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43763</v>
+        <v>42043</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.108525263779094</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07909491932023015</v>
+        <v>0.0790143009119899</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1495739306752307</v>
+        <v>0.1436972254834013</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>88</v>
@@ -2773,19 +2773,19 @@
         <v>80279</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>66673</v>
+        <v>65509</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95815</v>
+        <v>95070</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2340947549928419</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1944186040527093</v>
+        <v>0.191023637742561</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.279396364957977</v>
+        <v>0.2772259409999833</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>122</v>
@@ -2794,19 +2794,19 @@
         <v>112032</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>93461</v>
+        <v>95034</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>131352</v>
+        <v>132462</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1762843446977689</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1470631609647753</v>
+        <v>0.1495380504884918</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2066854594659275</v>
+        <v>0.2084321112784554</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>5095</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1822</v>
+        <v>1619</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11461</v>
+        <v>11933</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02427521700512048</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008682425181633886</v>
+        <v>0.007712532298081819</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05460722399373842</v>
+        <v>0.05685739915838994</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2919,19 +2919,19 @@
         <v>8357</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3458</v>
+        <v>3818</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16297</v>
+        <v>16687</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02519579303538854</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01042553746392826</v>
+        <v>0.01151229725743013</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0491378134203049</v>
+        <v>0.05031104395681769</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2940,19 +2940,19 @@
         <v>13452</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7473</v>
+        <v>6847</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>24638</v>
+        <v>22244</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0248390149055066</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01379848406430779</v>
+        <v>0.01264272595883599</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04549573361273238</v>
+        <v>0.04107500422218429</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>103315</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>89298</v>
+        <v>88937</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>117460</v>
+        <v>116910</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4922498562819752</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4254646521847263</v>
+        <v>0.423745714910371</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5596471787069477</v>
+        <v>0.557023865402017</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>88</v>
@@ -2990,19 +2990,19 @@
         <v>101622</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>84028</v>
+        <v>84817</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>118338</v>
+        <v>119961</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3063989805326122</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2533510549110958</v>
+        <v>0.2557307005999458</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3567981015406337</v>
+        <v>0.3616898753534473</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>198</v>
@@ -3011,19 +3011,19 @@
         <v>204937</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>183067</v>
+        <v>182186</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>227879</v>
+        <v>226848</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3784272820597239</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3380420840352389</v>
+        <v>0.336416540141863</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4207909028961904</v>
+        <v>0.4188867095702729</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>73230</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>61419</v>
+        <v>59635</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>87201</v>
+        <v>86994</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3489103940439399</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2926352286994918</v>
+        <v>0.2841321563898269</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4154725034050034</v>
+        <v>0.4144889350696945</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>115</v>
@@ -3061,19 +3061,19 @@
         <v>131104</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>112956</v>
+        <v>112393</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>149632</v>
+        <v>149681</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3952868010687605</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3405708352250266</v>
+        <v>0.338872096042618</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4511505668883869</v>
+        <v>0.4512977870545903</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>191</v>
@@ -3082,19 +3082,19 @@
         <v>204334</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>179902</v>
+        <v>181325</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>226127</v>
+        <v>228183</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3773131767021329</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3321978445777836</v>
+        <v>0.3348252838852105</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4175557537356513</v>
+        <v>0.4213510334643703</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>28243</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>18983</v>
+        <v>19291</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38676</v>
+        <v>39320</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1345645326689645</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0904468442713761</v>
+        <v>0.09191188488171362</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1842743806476774</v>
+        <v>0.1873418550564381</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>78</v>
@@ -3132,19 +3132,19 @@
         <v>90584</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>75505</v>
+        <v>73473</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108565</v>
+        <v>108472</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2731184253632387</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2276525994014754</v>
+        <v>0.2215264116208691</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3273317021684817</v>
+        <v>0.3270517567486655</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>107</v>
@@ -3153,19 +3153,19 @@
         <v>118827</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100816</v>
+        <v>100667</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>139827</v>
+        <v>140202</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2194205263326366</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.186161729482192</v>
+        <v>0.1858866335538823</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2581983016061816</v>
+        <v>0.2588895981801353</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>141824</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>117942</v>
+        <v>117278</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>167729</v>
+        <v>166063</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04335485313674091</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03605416483611861</v>
+        <v>0.03585143879548667</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0512738520972803</v>
+        <v>0.05076453710266586</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>110</v>
@@ -3278,19 +3278,19 @@
         <v>114817</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>94178</v>
+        <v>94198</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>137270</v>
+        <v>140127</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03405683216609888</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02793500555353912</v>
+        <v>0.02794102178328567</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0407168668019091</v>
+        <v>0.04156420056862927</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>243</v>
@@ -3299,19 +3299,19 @@
         <v>256641</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>227370</v>
+        <v>224685</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>288879</v>
+        <v>286928</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03863578512317884</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03422929683676845</v>
+        <v>0.03382499069489418</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04348899485765501</v>
+        <v>0.04319540260937982</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>2041932</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1983102</v>
+        <v>1980938</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2098477</v>
+        <v>2092302</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6242085308076787</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6062244261950215</v>
+        <v>0.6055628059042453</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.641494027163959</v>
+        <v>0.6396063425715641</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1775</v>
@@ -3349,19 +3349,19 @@
         <v>1821092</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1763135</v>
+        <v>1765786</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1879209</v>
+        <v>1876598</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5401696410240486</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5229784998463554</v>
+        <v>0.5237648024248271</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5574082955944029</v>
+        <v>0.5566338867254826</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3769</v>
@@ -3370,19 +3370,19 @@
         <v>3863024</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3776829</v>
+        <v>3774187</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3939994</v>
+        <v>3936819</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5815558805366811</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5685796177019516</v>
+        <v>0.568181910622988</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5931431517340262</v>
+        <v>0.5926652399768053</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>861404</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>806480</v>
+        <v>815661</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>911393</v>
+        <v>914272</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2633269449588718</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2465368299820196</v>
+        <v>0.2493435108281588</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2786082639008993</v>
+        <v>0.2794883190594998</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>981</v>
@@ -3420,19 +3420,19 @@
         <v>1005380</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>950507</v>
+        <v>954020</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1055931</v>
+        <v>1057835</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2982145283940564</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2819379586057656</v>
+        <v>0.282979967333841</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3132088157115718</v>
+        <v>0.313773430746067</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1837</v>
@@ -3441,19 +3441,19 @@
         <v>1866785</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1793476</v>
+        <v>1794205</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1941153</v>
+        <v>1936918</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2810336031369173</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2699973481115659</v>
+        <v>0.2701072043226206</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2922292952443292</v>
+        <v>0.2915917137879323</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>226074</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>200235</v>
+        <v>201000</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>256956</v>
+        <v>259571</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06910967109670856</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06121081575713495</v>
+        <v>0.06144475440780822</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07855003286656895</v>
+        <v>0.07934963685769315</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>423</v>
@@ -3491,19 +3491,19 @@
         <v>430044</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>393004</v>
+        <v>393049</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>469339</v>
+        <v>470837</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1275589984157961</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1165723180942949</v>
+        <v>0.1165855246418032</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1392147980092278</v>
+        <v>0.139659090044215</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>648</v>
@@ -3512,19 +3512,19 @@
         <v>656118</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>610072</v>
+        <v>609737</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>708150</v>
+        <v>702751</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0987747312032228</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09184286167702146</v>
+        <v>0.0917924333521572</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1066079304197406</v>
+        <v>0.10579512382115</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>54182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40824</v>
+        <v>41165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69870</v>
+        <v>68695</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1198117644026945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09027287244800225</v>
+        <v>0.09102642030731142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1545017478344241</v>
+        <v>0.1519037548493132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3880,19 +3880,19 @@
         <v>25596</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16659</v>
+        <v>15883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36139</v>
+        <v>35551</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05982467661283846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03893595848840097</v>
+        <v>0.03712218121061212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08446830251206121</v>
+        <v>0.08309450617695509</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3901,19 +3901,19 @@
         <v>79778</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64545</v>
+        <v>64079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97446</v>
+        <v>99119</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09064916487753882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07334058435567604</v>
+        <v>0.07281126383978341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1107249621974636</v>
+        <v>0.1126267317877186</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>327279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306900</v>
+        <v>310598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>345452</v>
+        <v>347587</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7237074658132193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6786427699188156</v>
+        <v>0.6868199812035538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7638924671202086</v>
+        <v>0.7686135079370102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -3951,19 +3951,19 @@
         <v>293008</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272657</v>
+        <v>274790</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311169</v>
+        <v>311709</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6848478030921438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6372815659917936</v>
+        <v>0.6422664507499452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7272954869630047</v>
+        <v>0.7285572852959534</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>605</v>
@@ -3972,19 +3972,19 @@
         <v>620287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>591262</v>
+        <v>593001</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>646719</v>
+        <v>648495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7048159205928998</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6718352198831465</v>
+        <v>0.6738112425395593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7348491036356236</v>
+        <v>0.7368670496201367</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>63443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50324</v>
+        <v>49607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79709</v>
+        <v>78556</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1402904159175049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1112809673428314</v>
+        <v>0.1096954859534107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1762591601998887</v>
+        <v>0.1737103267922274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>91</v>
@@ -4022,19 +4022,19 @@
         <v>92327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74766</v>
+        <v>75945</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>108263</v>
+        <v>110151</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2157962292697758</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1747495846864279</v>
+        <v>0.1775072450402403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2530439218149734</v>
+        <v>0.2574554917150755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>155</v>
@@ -4043,19 +4043,19 @@
         <v>155770</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132101</v>
+        <v>133240</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178305</v>
+        <v>178477</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1769974120018486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1501023395459761</v>
+        <v>0.151397600298505</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2026031795173745</v>
+        <v>0.2027986647321003</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>7322</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3184</v>
+        <v>3168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14859</v>
+        <v>14540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01619035386658129</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007040809663429713</v>
+        <v>0.007006442108940207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0328585565967424</v>
+        <v>0.03215260433462837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -4093,19 +4093,19 @@
         <v>16913</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10216</v>
+        <v>10048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26055</v>
+        <v>25979</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03953129102524187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02387856949706623</v>
+        <v>0.02348635622134222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06089894633338154</v>
+        <v>0.06072034110953465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -4114,19 +4114,19 @@
         <v>24235</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16180</v>
+        <v>16270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35424</v>
+        <v>35563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02753750252771281</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01838545751603334</v>
+        <v>0.01848720481520588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04025144308895236</v>
+        <v>0.04040943165599702</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>44482</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32414</v>
+        <v>32074</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59324</v>
+        <v>60020</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06491941762270016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04730660482801891</v>
+        <v>0.04680988529439281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08658022613040117</v>
+        <v>0.08759579150844657</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -4239,19 +4239,19 @@
         <v>32668</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22047</v>
+        <v>22365</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44101</v>
+        <v>45612</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05382391196312029</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03632473010285148</v>
+        <v>0.03684910583224375</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07266006083168192</v>
+        <v>0.07515069076372111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>72</v>
@@ -4260,19 +4260,19 @@
         <v>77150</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>62021</v>
+        <v>60516</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98350</v>
+        <v>97655</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05970760021056884</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04799856679992323</v>
+        <v>0.04683375321268041</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0761147121761177</v>
+        <v>0.0755763593946867</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>476710</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>451150</v>
+        <v>453051</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>499461</v>
+        <v>499964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6957355621163784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6584309836594666</v>
+        <v>0.6612058861352006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7289388260192067</v>
+        <v>0.7296736534155142</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>326</v>
@@ -4310,19 +4310,19 @@
         <v>352039</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327290</v>
+        <v>327083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>375707</v>
+        <v>375744</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5800162008435267</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5392414389483167</v>
+        <v>0.5388994944542709</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6190128975660276</v>
+        <v>0.6190731859884067</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>790</v>
@@ -4331,19 +4331,19 @@
         <v>828749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>790594</v>
+        <v>793194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>862832</v>
+        <v>863418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6413794831321061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6118507415569938</v>
+        <v>0.6138629506029292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6677571923732691</v>
+        <v>0.6682106814816339</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>140923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>120333</v>
+        <v>119050</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164058</v>
+        <v>162978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2056697453425562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1756205815919376</v>
+        <v>0.1737470394392334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2394353472501684</v>
+        <v>0.2378581447396734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -4381,19 +4381,19 @@
         <v>164784</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144448</v>
+        <v>140989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>187716</v>
+        <v>187348</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2714970082109544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2379916718615507</v>
+        <v>0.2322925255214177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3092802382057158</v>
+        <v>0.3086736606281674</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>294</v>
@@ -4402,19 +4402,19 @@
         <v>305707</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>273752</v>
+        <v>274364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>338421</v>
+        <v>337272</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2365903437664999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2118603655517122</v>
+        <v>0.2123341795695637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2619083349348066</v>
+        <v>0.2610193368899559</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>23074</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15608</v>
+        <v>15642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35190</v>
+        <v>35558</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0336752749183652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02277966472900954</v>
+        <v>0.02282822628132158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0513576819438233</v>
+        <v>0.05189543629151201</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -4452,19 +4452,19 @@
         <v>57455</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44446</v>
+        <v>43785</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73335</v>
+        <v>74002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09466287898239864</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07322837435275892</v>
+        <v>0.07213908284736494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1208268447617934</v>
+        <v>0.1219253759537406</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -4473,19 +4473,19 @@
         <v>80529</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>64149</v>
+        <v>64477</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101527</v>
+        <v>100516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06232257289082519</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04964539235616512</v>
+        <v>0.04989965231441743</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07857267291497115</v>
+        <v>0.07779054878546408</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>23127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15293</v>
+        <v>15052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33399</v>
+        <v>33525</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03411204910598738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02255767415050764</v>
+        <v>0.02220243928119713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04926358644357446</v>
+        <v>0.04944962307415469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -4598,19 +4598,19 @@
         <v>26872</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17575</v>
+        <v>17967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40282</v>
+        <v>40577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03823355115931413</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02500673215534214</v>
+        <v>0.02556337182440095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05731363981782952</v>
+        <v>0.05773418935161023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -4619,19 +4619,19 @@
         <v>49998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37468</v>
+        <v>37037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64700</v>
+        <v>65792</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03620991456795319</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02713531719411232</v>
+        <v>0.02682293757187401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04685693636440866</v>
+        <v>0.04764810930012769</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>412738</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>386083</v>
+        <v>385412</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>438643</v>
+        <v>438489</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6087920630299752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5694759326557374</v>
+        <v>0.568486708801496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6470022032207913</v>
+        <v>0.6467757060623136</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>355</v>
@@ -4669,19 +4669,19 @@
         <v>374909</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>347742</v>
+        <v>344963</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>403001</v>
+        <v>399810</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5334284220494938</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4947739993384474</v>
+        <v>0.4908198009002742</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5733972946124052</v>
+        <v>0.5688578466440626</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>748</v>
@@ -4690,19 +4690,19 @@
         <v>787648</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>752474</v>
+        <v>750299</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>824874</v>
+        <v>823590</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5704315872967829</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5449575288054088</v>
+        <v>0.5433824189060168</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5973912520310031</v>
+        <v>0.5964614044257158</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>197507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>172507</v>
+        <v>175071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221197</v>
+        <v>223285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2913247360290963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2544500531741299</v>
+        <v>0.2582305888185517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3262668194426677</v>
+        <v>0.3293477467849733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>231</v>
@@ -4740,19 +4740,19 @@
         <v>250028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224416</v>
+        <v>224858</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>276313</v>
+        <v>275486</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3557445950612793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3193036420520089</v>
+        <v>0.3199323494529756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3931430547374614</v>
+        <v>0.3919672646001867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>419</v>
@@ -4761,19 +4761,19 @@
         <v>447535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>411189</v>
+        <v>412457</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>481559</v>
+        <v>483288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3241147712103815</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2977921981010648</v>
+        <v>0.2987105420398175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3487551582527072</v>
+        <v>0.3500077665641341</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>44590</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32801</v>
+        <v>32880</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60241</v>
+        <v>59438</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06577115183494109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04838135535655819</v>
+        <v>0.04849860200523461</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08885585178492603</v>
+        <v>0.08767222077189578</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -4811,19 +4811,19 @@
         <v>51021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38190</v>
+        <v>37658</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65466</v>
+        <v>65917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0725934317299128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05433759323647747</v>
+        <v>0.05358074899017813</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09314635508199641</v>
+        <v>0.09378760370616018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -4832,19 +4832,19 @@
         <v>95611</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79172</v>
+        <v>76190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117240</v>
+        <v>113924</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06924372692488251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0573382120267489</v>
+        <v>0.05517859868248631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08490791875866621</v>
+        <v>0.08250652391303916</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>14923</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8272</v>
+        <v>8592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24334</v>
+        <v>25070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02472143298684381</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01370345616131643</v>
+        <v>0.01423351657186599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04031099501719997</v>
+        <v>0.041530413697589</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4957,19 +4957,19 @@
         <v>22858</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14783</v>
+        <v>14617</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35509</v>
+        <v>35346</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03747800995668595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02423786232955656</v>
+        <v>0.02396643856502074</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05822114767557484</v>
+        <v>0.05795384475314395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -4978,19 +4978,19 @@
         <v>37781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26102</v>
+        <v>25497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51605</v>
+        <v>51990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03113252893934185</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0215091327281437</v>
+        <v>0.02101055616741199</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04252357031342838</v>
+        <v>0.04284079754531857</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>346172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>319236</v>
+        <v>321648</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>372422</v>
+        <v>370457</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5734594070816726</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5288387662502003</v>
+        <v>0.5328337297404944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6169449634100909</v>
+        <v>0.6136904674511459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -5028,19 +5028,19 @@
         <v>304056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>275182</v>
+        <v>277322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330382</v>
+        <v>331427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4985358849500852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4511934918320414</v>
+        <v>0.4547024403155884</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5416997359352392</v>
+        <v>0.5434145756967003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>577</v>
@@ -5049,19 +5049,19 @@
         <v>650228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>615830</v>
+        <v>612287</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>683013</v>
+        <v>688284</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5358049570971435</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5074602337279258</v>
+        <v>0.5045407015900979</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5628212905281423</v>
+        <v>0.5671643590891906</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>185868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>162726</v>
+        <v>160958</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>209568</v>
+        <v>209695</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3079041320440885</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2695678442529897</v>
+        <v>0.266639803410359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3471650729488839</v>
+        <v>0.3473762621254364</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>185</v>
@@ -5099,19 +5099,19 @@
         <v>211866</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>186965</v>
+        <v>188122</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>239949</v>
+        <v>239027</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3473797918766098</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3065514463040989</v>
+        <v>0.3084488955545489</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3934255452496203</v>
+        <v>0.3919135555427068</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>356</v>
@@ -5120,19 +5120,19 @@
         <v>397734</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>366966</v>
+        <v>362525</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>431580</v>
+        <v>432744</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3277434857808141</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3023895596605984</v>
+        <v>0.2987305822832046</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3556337900644329</v>
+        <v>0.3565928139807751</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>56692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41605</v>
+        <v>42533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75614</v>
+        <v>75782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09391502788739506</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06892157937906074</v>
+        <v>0.07045838777258691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1252608855363262</v>
+        <v>0.1255393106106193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -5170,19 +5170,19 @@
         <v>71118</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56011</v>
+        <v>55802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89616</v>
+        <v>91722</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1166063132166191</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09183591207064561</v>
+        <v>0.09149470108890539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.146935467027987</v>
+        <v>0.1503896237723192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -5191,19 +5191,19 @@
         <v>127810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104660</v>
+        <v>106192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151447</v>
+        <v>153460</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1053190281827005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08624250565119027</v>
+        <v>0.08750527694202379</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1247965928071771</v>
+        <v>0.1264549773568998</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>13855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7819</v>
+        <v>7423</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22528</v>
+        <v>23039</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03258480356027309</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01838995041921237</v>
+        <v>0.01745840480068128</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05298205912045894</v>
+        <v>0.05418438863807638</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -5316,19 +5316,19 @@
         <v>4970</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1881</v>
+        <v>1059</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13810</v>
+        <v>13875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01120150894663222</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004238379959758611</v>
+        <v>0.002386824611646095</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03112384341787745</v>
+        <v>0.03127091843518764</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -5337,19 +5337,19 @@
         <v>18825</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10938</v>
+        <v>11497</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29360</v>
+        <v>30048</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02166540326165794</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01258811373634507</v>
+        <v>0.01323099717862616</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03378972482542543</v>
+        <v>0.0345808305064526</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>227164</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>205731</v>
+        <v>206077</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>247894</v>
+        <v>251621</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5342517900348684</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4838430028346641</v>
+        <v>0.4846577366946723</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5830054151838827</v>
+        <v>0.591768866416634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>175</v>
@@ -5387,19 +5387,19 @@
         <v>195680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>173305</v>
+        <v>172701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>216764</v>
+        <v>215481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4410092494888526</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3905815879221363</v>
+        <v>0.3892204834878686</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4885256036017477</v>
+        <v>0.485635212496721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>379</v>
@@ -5408,19 +5408,19 @@
         <v>422845</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>392552</v>
+        <v>394330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>453347</v>
+        <v>455245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4866373955517892</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4517752284918663</v>
+        <v>0.4538210611910944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5217417327086912</v>
+        <v>0.5239257580216719</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>151355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130227</v>
+        <v>130609</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172487</v>
+        <v>173475</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3559601282105683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3062717779694572</v>
+        <v>0.3071711400456313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4056609769069006</v>
+        <v>0.4079843297473222</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>165</v>
@@ -5458,19 +5458,19 @@
         <v>179785</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157610</v>
+        <v>159942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>200984</v>
+        <v>201350</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4051862219441758</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3552095817084753</v>
+        <v>0.3604656577452857</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4529631048563416</v>
+        <v>0.4537873320650956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>306</v>
@@ -5479,19 +5479,19 @@
         <v>331140</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>300766</v>
+        <v>301094</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>361680</v>
+        <v>362425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3810974810987203</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3461410179182035</v>
+        <v>0.3465184439204759</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4162449185401566</v>
+        <v>0.417102880346015</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>32827</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22843</v>
+        <v>22271</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>47296</v>
+        <v>44680</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07720327819429014</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05372270432868323</v>
+        <v>0.05237682038186867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1112322919846483</v>
+        <v>0.1050786833873866</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -5529,19 +5529,19 @@
         <v>63274</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48483</v>
+        <v>48737</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>82044</v>
+        <v>79257</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1426030196203393</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1092680008400153</v>
+        <v>0.1098400084762168</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1849039367498592</v>
+        <v>0.1786224405495985</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>89</v>
@@ -5550,19 +5550,19 @@
         <v>96101</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>78615</v>
+        <v>78694</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>121408</v>
+        <v>117270</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1105997200878325</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09047527681735291</v>
+        <v>0.09056653095769786</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1397246626019732</v>
+        <v>0.1349617496256723</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>8494</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2980</v>
+        <v>3380</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19021</v>
+        <v>17071</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0275099552324308</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009649706958083738</v>
+        <v>0.01094756984979964</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06160287114520139</v>
+        <v>0.05528702755416453</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -5675,19 +5675,19 @@
         <v>9496</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4632</v>
+        <v>3943</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17434</v>
+        <v>17677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02690247041312842</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01312160946293425</v>
+        <v>0.01116997277524397</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04939155725061403</v>
+        <v>0.05007877606529923</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -5696,19 +5696,19 @@
         <v>17990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9807</v>
+        <v>10261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29457</v>
+        <v>29203</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02718592058557569</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01481931710493926</v>
+        <v>0.01550526540574124</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04451395133516022</v>
+        <v>0.04413081375262871</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>166719</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>148121</v>
+        <v>148310</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>184963</v>
+        <v>185006</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5399472899840668</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4797131457693157</v>
+        <v>0.4803272933063742</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5990321978311591</v>
+        <v>0.5991722360611295</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>145</v>
@@ -5746,19 +5746,19 @@
         <v>150874</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>132003</v>
+        <v>131009</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>169162</v>
+        <v>170236</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4274292708438131</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3739688291895206</v>
+        <v>0.3711520824621393</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4792400489970094</v>
+        <v>0.4822845820126545</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>297</v>
@@ -5767,19 +5767,19 @@
         <v>317593</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>288250</v>
+        <v>293726</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>345752</v>
+        <v>346078</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4799297628978456</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4355889731301184</v>
+        <v>0.4438632904738337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5224826490361946</v>
+        <v>0.5229760841820104</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>114255</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>96667</v>
+        <v>98806</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>132940</v>
+        <v>133204</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3700323378221022</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3130717752964227</v>
+        <v>0.3200012385856589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4305470147954011</v>
+        <v>0.4314041767174808</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>143</v>
@@ -5817,19 +5817,19 @@
         <v>143394</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>125670</v>
+        <v>125594</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163390</v>
+        <v>165221</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4062389129014274</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3560281075919597</v>
+        <v>0.355811773569044</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4628893307177933</v>
+        <v>0.468076812349638</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>249</v>
@@ -5838,19 +5838,19 @@
         <v>257648</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>230772</v>
+        <v>232629</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>283856</v>
+        <v>282542</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3893450587278446</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3487305094313805</v>
+        <v>0.3515366937640872</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4289494812338475</v>
+        <v>0.4269637791623435</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>19301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11643</v>
+        <v>12098</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31574</v>
+        <v>31238</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06251041696140024</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03770620994563994</v>
+        <v>0.03918003064488173</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1022581827398881</v>
+        <v>0.1011691523216181</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -5888,19 +5888,19 @@
         <v>49216</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38084</v>
+        <v>37881</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63139</v>
+        <v>65707</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1394293458416311</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1078943187269418</v>
+        <v>0.1073176386962793</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1788754323175029</v>
+        <v>0.1861501677953981</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>63</v>
@@ -5909,19 +5909,19 @@
         <v>68517</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>51972</v>
+        <v>53734</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84871</v>
+        <v>86530</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1035392577887341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07853806401587814</v>
+        <v>0.08120011711805797</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1282527488053972</v>
+        <v>0.1307598693803369</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>6181</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2142</v>
+        <v>2128</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12440</v>
+        <v>12964</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02539130601234172</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008798963043561666</v>
+        <v>0.008742528023153779</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05110159055657615</v>
+        <v>0.05325232154093961</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -6034,19 +6034,19 @@
         <v>13053</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7499</v>
+        <v>6794</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>22039</v>
+        <v>21457</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03463281895297127</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01989676088343339</v>
+        <v>0.0180253996589555</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05847401512333441</v>
+        <v>0.0569301539278174</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -6055,19 +6055,19 @@
         <v>19235</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>11658</v>
+        <v>11948</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29824</v>
+        <v>30991</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03100620856550351</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01879195706091199</v>
+        <v>0.01926045661998346</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04807712415023828</v>
+        <v>0.04995742302189685</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>146789</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>131325</v>
+        <v>129977</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>162589</v>
+        <v>162338</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6029796214358254</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5394564707566178</v>
+        <v>0.5339187142326147</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6678800568304537</v>
+        <v>0.6668495006562749</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>159</v>
@@ -6105,19 +6105,19 @@
         <v>177627</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>156433</v>
+        <v>158430</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>196372</v>
+        <v>199680</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4712758777287433</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4150460232819119</v>
+        <v>0.4203447235992096</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5210103249038612</v>
+        <v>0.5297860971740015</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>293</v>
@@ -6126,19 +6126,19 @@
         <v>324416</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>298691</v>
+        <v>299709</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>350513</v>
+        <v>352559</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5229598571880587</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4814911417140287</v>
+        <v>0.4831320249671452</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5650278729625455</v>
+        <v>0.5683262119148869</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>65406</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>51143</v>
+        <v>51332</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>79914</v>
+        <v>80764</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2686759690871032</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.210084233744345</v>
+        <v>0.2108599747067979</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3282693116487017</v>
+        <v>0.3317615749024226</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>117</v>
@@ -6176,19 +6176,19 @@
         <v>128748</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111042</v>
+        <v>107911</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>148456</v>
+        <v>148684</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3415907508936838</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2946138143586022</v>
+        <v>0.2863065228568427</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3938798139603442</v>
+        <v>0.3944868756024564</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>173</v>
@@ -6197,19 +6197,19 @@
         <v>194154</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>169981</v>
+        <v>168330</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>219826</v>
+        <v>219198</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3129770913339888</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2740096156828312</v>
+        <v>0.271348220704788</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3543596906062393</v>
+        <v>0.3533471706828258</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>25063</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16283</v>
+        <v>16268</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37875</v>
+        <v>38223</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1029531034647296</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06688714486897428</v>
+        <v>0.06682423157827634</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1555819937798907</v>
+        <v>0.1570134127102658</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>52</v>
@@ -6247,19 +6247,19 @@
         <v>57478</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>43968</v>
+        <v>44458</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>73249</v>
+        <v>73632</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1525005524246016</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1166540470568545</v>
+        <v>0.1179556836979543</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1943435254305248</v>
+        <v>0.1953586210710917</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>73</v>
@@ -6268,19 +6268,19 @@
         <v>82541</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>65277</v>
+        <v>65977</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>102398</v>
+        <v>101077</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.133056842912449</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1052261361900041</v>
+        <v>0.1063551380632848</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1650661717148602</v>
+        <v>0.1629360284748623</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>165245</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>140372</v>
+        <v>140826</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>194357</v>
+        <v>190663</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04865223629210162</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04132902132383275</v>
+        <v>0.04146290652456667</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05722367034343677</v>
+        <v>0.05613608215046494</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>124</v>
@@ -6393,19 +6393,19 @@
         <v>135513</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>112103</v>
+        <v>112661</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>158318</v>
+        <v>159305</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03848579414384162</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03183749807964129</v>
+        <v>0.03199588586598803</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.0449625827939938</v>
+        <v>0.04524289479682415</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>282</v>
@@ -6414,19 +6414,19 @@
         <v>300757</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>268075</v>
+        <v>265876</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>336883</v>
+        <v>336949</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04347740337598923</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03875284049120974</v>
+        <v>0.03843501738483015</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04869977312129443</v>
+        <v>0.0487091876548942</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>2103573</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2044988</v>
+        <v>2042940</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2159341</v>
+        <v>2156468</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6193457477382595</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6020969660705999</v>
+        <v>0.6014939770126716</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6357652783265831</v>
+        <v>0.6349195997057369</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1713</v>
@@ -6464,19 +6464,19 @@
         <v>1848193</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1790425</v>
+        <v>1789238</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1912053</v>
+        <v>1908630</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5248887405939182</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5084826710250275</v>
+        <v>0.5081454434378476</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5430251083777943</v>
+        <v>0.5420530129884928</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3689</v>
@@ -6485,19 +6485,19 @@
         <v>3951765</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3858214</v>
+        <v>3864127</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4040009</v>
+        <v>4029959</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5712660731972836</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5577423055325701</v>
+        <v>0.5585971928356922</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5840226446030624</v>
+        <v>0.5825697483111952</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>918757</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>865600</v>
+        <v>861264</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>972446</v>
+        <v>971865</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2705054977878226</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2548549929266976</v>
+        <v>0.2535783671851658</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2863131645550792</v>
+        <v>0.2861418660512328</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1089</v>
@@ -6535,19 +6535,19 @@
         <v>1170932</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1113959</v>
+        <v>1118100</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1229048</v>
+        <v>1231462</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3325459719104164</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3163654381517937</v>
+        <v>0.3175414761247002</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3490508291917624</v>
+        <v>0.3497364274308161</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1952</v>
@@ -6556,19 +6556,19 @@
         <v>2089688</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2005677</v>
+        <v>2009686</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2163442</v>
+        <v>2166028</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3020847939603548</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2899400792582286</v>
+        <v>0.2905196579650545</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3127465729045085</v>
+        <v>0.3131204220469612</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>208869</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>180343</v>
+        <v>181422</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>240699</v>
+        <v>244248</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06149651818181642</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05309759406507408</v>
+        <v>0.05341531416351548</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07086798225453976</v>
+        <v>0.07191275275331137</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>339</v>
@@ -6606,19 +6606,19 @@
         <v>366476</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>331996</v>
+        <v>328262</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>405804</v>
+        <v>403764</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1040794933518237</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09428724004129031</v>
+        <v>0.09322674548797223</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1152487271176301</v>
+        <v>0.1146693629947123</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>525</v>
@@ -6627,19 +6627,19 @@
         <v>575345</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>522917</v>
+        <v>529870</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>623053</v>
+        <v>625428</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08317172946637234</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07559273745933082</v>
+        <v>0.07659788020533247</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09006839146681571</v>
+        <v>0.09041174573834064</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>36281</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25495</v>
+        <v>25408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48424</v>
+        <v>48786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08671930974138535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06093837610775221</v>
+        <v>0.06072894620855773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1157426510265682</v>
+        <v>0.1166071465532128</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6995,19 +6995,19 @@
         <v>33550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24677</v>
+        <v>24455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46581</v>
+        <v>45022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08542058178326439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06283032222545691</v>
+        <v>0.06226544624627887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1185978601504245</v>
+        <v>0.1146302100489487</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -7016,19 +7016,19 @@
         <v>69831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54615</v>
+        <v>55334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87269</v>
+        <v>86057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08609045298834876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06733166283077523</v>
+        <v>0.06821710179821795</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1075887136990711</v>
+        <v>0.1060938337809918</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>339369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>320227</v>
+        <v>319997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354279</v>
+        <v>354051</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8111551694893671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7654038646005222</v>
+        <v>0.7648537500865953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8467934625022803</v>
+        <v>0.846249836779001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -7066,19 +7066,19 @@
         <v>270438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253595</v>
+        <v>252596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288262</v>
+        <v>287273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6885570881247415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6456713560674582</v>
+        <v>0.64312883500572</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7339378583151734</v>
+        <v>0.73141924491054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>595</v>
@@ -7087,19 +7087,19 @@
         <v>609808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585241</v>
+        <v>585075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635251</v>
+        <v>631964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7517919819231117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7215048901717714</v>
+        <v>0.7213002761884497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7831597169151548</v>
+        <v>0.779106398137281</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>33870</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24505</v>
+        <v>23636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46731</v>
+        <v>46637</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08095644833362342</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05857134009530757</v>
+        <v>0.05649474691608947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1116966201149959</v>
+        <v>0.1114718112165644</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>79</v>
@@ -7137,19 +7137,19 @@
         <v>76037</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61471</v>
+        <v>62466</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91725</v>
+        <v>91817</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1935948408881875</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1565095600060504</v>
+        <v>0.1590422697716951</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.233540219080259</v>
+        <v>0.2337720067098161</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>111</v>
@@ -7158,19 +7158,19 @@
         <v>109907</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>93013</v>
+        <v>90667</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131142</v>
+        <v>129004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1354970573704907</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1146690817242393</v>
+        <v>0.1117770083179578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1616766429075641</v>
+        <v>0.1590407821824943</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>8857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3017</v>
+        <v>3823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17014</v>
+        <v>18836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02116907243562421</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007210374472050571</v>
+        <v>0.009137575895732095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04066574888816633</v>
+        <v>0.04502230401707734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -7208,19 +7208,19 @@
         <v>12736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6928</v>
+        <v>7001</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21368</v>
+        <v>21609</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03242748920380663</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01763822311637047</v>
+        <v>0.01782492416634492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05440425375292668</v>
+        <v>0.05501714561047984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -7229,19 +7229,19 @@
         <v>21593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13102</v>
+        <v>13764</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32292</v>
+        <v>32529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02662050771804885</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01615198837115373</v>
+        <v>0.01696858204879251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03981101865746355</v>
+        <v>0.04010327029640737</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>32447</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22641</v>
+        <v>22551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45308</v>
+        <v>43966</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05512945046333676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03846855121933457</v>
+        <v>0.03831552269673397</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07697990351406012</v>
+        <v>0.07469922639021445</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -7354,19 +7354,19 @@
         <v>18878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12039</v>
+        <v>12133</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28876</v>
+        <v>29011</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0337294330680299</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02150911651151911</v>
+        <v>0.02167754826061926</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0515914896928238</v>
+        <v>0.05183298772252459</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -7375,19 +7375,19 @@
         <v>51326</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38048</v>
+        <v>38874</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65729</v>
+        <v>67991</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04469848702310546</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0331347850859738</v>
+        <v>0.03385484803584472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05724183070242692</v>
+        <v>0.05921177955677128</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>424225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>398896</v>
+        <v>401657</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>445280</v>
+        <v>446578</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7207731272306607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6777393058055678</v>
+        <v>0.6824300606738501</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7565462366807221</v>
+        <v>0.7587526185453873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>383</v>
@@ -7425,19 +7425,19 @@
         <v>373961</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>352999</v>
+        <v>351344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>394538</v>
+        <v>393818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6681510980939678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.630697514090338</v>
+        <v>0.6277401559192985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7049147182488685</v>
+        <v>0.7036288280287586</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>794</v>
@@ -7446,19 +7446,19 @@
         <v>798186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>766828</v>
+        <v>764397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>831712</v>
+        <v>829754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6951236872355322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6678141675458444</v>
+        <v>0.66569695226964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7243208413580663</v>
+        <v>0.722615590391087</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>111668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94317</v>
+        <v>92372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134381</v>
+        <v>132814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1897274554060938</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1602472823106032</v>
+        <v>0.156942939797245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2283173401089312</v>
+        <v>0.225654973468426</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -7496,19 +7496,19 @@
         <v>131952</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112911</v>
+        <v>114049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150536</v>
+        <v>152051</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2357561529395003</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2017371496192096</v>
+        <v>0.2037701027376359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2689601548350064</v>
+        <v>0.2716665922701006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>241</v>
@@ -7517,19 +7517,19 @@
         <v>243619</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>217513</v>
+        <v>216386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>271011</v>
+        <v>273014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2121631222704451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.189427809694502</v>
+        <v>0.188446307522922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2360179636393157</v>
+        <v>0.237762192360923</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>20229</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12962</v>
+        <v>13100</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31524</v>
+        <v>31571</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03436996689990874</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02202351514899051</v>
+        <v>0.02225706041379664</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05356068085402238</v>
+        <v>0.05364110397816833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -7567,19 +7567,19 @@
         <v>34904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24175</v>
+        <v>25423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45769</v>
+        <v>47643</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06236331589850205</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04319330706699626</v>
+        <v>0.04542219735335003</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08177389998217718</v>
+        <v>0.08512286001127561</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -7588,19 +7588,19 @@
         <v>55134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41275</v>
+        <v>41353</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70943</v>
+        <v>70761</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04801470347091727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03594513714465591</v>
+        <v>0.03601388755458212</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06178288785392366</v>
+        <v>0.06162470817165264</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>21855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13283</v>
+        <v>14133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32090</v>
+        <v>31690</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0329539703036309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02002868892647114</v>
+        <v>0.02131088258898471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04838701750224253</v>
+        <v>0.04778425413706665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -7713,19 +7713,19 @@
         <v>25493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16434</v>
+        <v>17017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36061</v>
+        <v>37608</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03876127093050111</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02498677198798141</v>
+        <v>0.02587357247041527</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05482885925720525</v>
+        <v>0.05718073586667019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -7734,19 +7734,19 @@
         <v>47348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35225</v>
+        <v>34735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61724</v>
+        <v>60626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03584553842730724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02666728648271452</v>
+        <v>0.02629625290132787</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04672865663308001</v>
+        <v>0.04589770762575278</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>442575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>417330</v>
+        <v>418508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>467763</v>
+        <v>465367</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6673361641558542</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.629270237217741</v>
+        <v>0.6310477626089863</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7053169921578981</v>
+        <v>0.7017036309203288</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>406</v>
@@ -7784,19 +7784,19 @@
         <v>400884</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>377402</v>
+        <v>374222</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>423702</v>
+        <v>423874</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6095245427517175</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5738204681405892</v>
+        <v>0.5689857268915399</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6442184828125221</v>
+        <v>0.6444791171596919</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>830</v>
@@ -7805,19 +7805,19 @@
         <v>843459</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>806368</v>
+        <v>806925</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>879879</v>
+        <v>878664</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6385506315356256</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6104703850591705</v>
+        <v>0.6108923440389892</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.666122742712557</v>
+        <v>0.6652029204657115</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>164573</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>143867</v>
+        <v>144021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188252</v>
+        <v>188173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2481518530365951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2169302009624371</v>
+        <v>0.2171624474648454</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2838558264938388</v>
+        <v>0.2837367907168097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -7855,19 +7855,19 @@
         <v>175849</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156833</v>
+        <v>154705</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199871</v>
+        <v>198523</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2673699068795272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.238456548045467</v>
+        <v>0.2352211097878547</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3038932165412881</v>
+        <v>0.3018439365952641</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>332</v>
@@ -7876,19 +7876,19 @@
         <v>340423</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>307740</v>
+        <v>308758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>375090</v>
+        <v>374562</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2577208964634492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2329781144406124</v>
+        <v>0.2337491674443351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2839664614632347</v>
+        <v>0.2835667610637676</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>34193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24205</v>
+        <v>24037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47317</v>
+        <v>49138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05155801250391991</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03649742783392339</v>
+        <v>0.036244153512293</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07134629240167943</v>
+        <v>0.07409316462883868</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -7926,19 +7926,19 @@
         <v>55473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42430</v>
+        <v>42749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71714</v>
+        <v>71327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08434427943825408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06451269234624819</v>
+        <v>0.06499738219705747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1090382853879913</v>
+        <v>0.1084496699171053</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>86</v>
@@ -7947,19 +7947,19 @@
         <v>89666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71879</v>
+        <v>72416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110759</v>
+        <v>108288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06788293357361797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05441704007624271</v>
+        <v>0.05482326821526293</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08385169835023434</v>
+        <v>0.08198061600397291</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>23281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14446</v>
+        <v>15084</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34184</v>
+        <v>34251</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03643160158394183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02260528760339446</v>
+        <v>0.02360384100259069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05349220064351327</v>
+        <v>0.05359711607973693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -8072,19 +8072,19 @@
         <v>15697</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9279</v>
+        <v>9259</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24242</v>
+        <v>25818</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02434244256805857</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01438956687537125</v>
+        <v>0.01435835638749398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03759198292435935</v>
+        <v>0.04003645572044438</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -8093,19 +8093,19 @@
         <v>38979</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27705</v>
+        <v>27312</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52598</v>
+        <v>52062</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03035963447824835</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02157900257185821</v>
+        <v>0.02127250044193177</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0409676274353476</v>
+        <v>0.04055006732742293</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>355988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>328962</v>
+        <v>330411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>385391</v>
+        <v>382831</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5570652473489551</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5147736134398712</v>
+        <v>0.5170409518425346</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6030762841934247</v>
+        <v>0.5990698394697465</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -8143,19 +8143,19 @@
         <v>365127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339610</v>
+        <v>339645</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>388855</v>
+        <v>392555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.566211664663191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.526642082264047</v>
+        <v>0.5266962562809362</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6030076582625999</v>
+        <v>0.6087459798855788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>660</v>
@@ -8164,19 +8164,19 @@
         <v>721115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>681847</v>
+        <v>683462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>759503</v>
+        <v>756194</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5616591769179201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5310740230451475</v>
+        <v>0.5323317568636953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5915582221585848</v>
+        <v>0.5889812024625539</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>211955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>185453</v>
+        <v>187348</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>239006</v>
+        <v>237429</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3316758592911045</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.290204968579963</v>
+        <v>0.293170560079724</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.374006459236996</v>
+        <v>0.3715385969080323</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>187</v>
@@ -8214,19 +8214,19 @@
         <v>199744</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>176237</v>
+        <v>173346</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>223900</v>
+        <v>221757</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.309748827404666</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2732956932504365</v>
+        <v>0.2688123310787948</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3472079818309935</v>
+        <v>0.3438846038507181</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>378</v>
@@ -8235,19 +8235,19 @@
         <v>411699</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>378437</v>
+        <v>376584</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>448240</v>
+        <v>447182</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3206626683681444</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2947549938399734</v>
+        <v>0.2933123820277532</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3491235503996936</v>
+        <v>0.3482991188309484</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>47818</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34809</v>
+        <v>35106</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63933</v>
+        <v>63144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07482729177599853</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0544708149500084</v>
+        <v>0.05493463199327717</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1000448607590854</v>
+        <v>0.09880964111514591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -8285,19 +8285,19 @@
         <v>64291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49794</v>
+        <v>49715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80940</v>
+        <v>81892</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09969706536408442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07721752780990408</v>
+        <v>0.07709446044608012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1255162784277391</v>
+        <v>0.126992443802888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -8306,19 +8306,19 @@
         <v>112108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91196</v>
+        <v>91929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133519</v>
+        <v>134900</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08731852023568713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0710300305057187</v>
+        <v>0.07160134696530965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1039947640390509</v>
+        <v>0.105069945033942</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>17135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9816</v>
+        <v>9840</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27173</v>
+        <v>27265</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03602055751528933</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0206344381273521</v>
+        <v>0.02068573755823635</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0571222783629993</v>
+        <v>0.05731564391689076</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -8431,19 +8431,19 @@
         <v>8829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3406</v>
+        <v>4356</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15710</v>
+        <v>16791</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01812534552529544</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006991467716053588</v>
+        <v>0.008941633198239443</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0322509966395724</v>
+        <v>0.03447033574634518</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -8452,19 +8452,19 @@
         <v>25965</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17104</v>
+        <v>17023</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>39238</v>
+        <v>39481</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02696682266037277</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01776417097956834</v>
+        <v>0.01767996473422352</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04075252378164369</v>
+        <v>0.04100475778705018</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>247046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>223770</v>
+        <v>225182</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>270528</v>
+        <v>271807</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5193242607566444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4703952260179139</v>
+        <v>0.4733632604594352</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5686857707053219</v>
+        <v>0.5713744790037402</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>203</v>
@@ -8502,19 +8502,19 @@
         <v>236351</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>212938</v>
+        <v>214422</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>258743</v>
+        <v>260842</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4851918181589716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4371285517491907</v>
+        <v>0.4401767255964802</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5311604636687167</v>
+        <v>0.5354681653670837</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>424</v>
@@ -8523,19 +8523,19 @@
         <v>483397</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>451963</v>
+        <v>448942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>516526</v>
+        <v>514633</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5020556145174838</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4694090405399668</v>
+        <v>0.4662707510918113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5364632529016667</v>
+        <v>0.5344973277824382</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>167986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>144178</v>
+        <v>147029</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>191140</v>
+        <v>190156</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3531293619796016</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3030805040575458</v>
+        <v>0.3090742668517467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4018021312365182</v>
+        <v>0.3997342975555045</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>160</v>
@@ -8573,19 +8573,19 @@
         <v>181092</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161087</v>
+        <v>158941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>206188</v>
+        <v>204292</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3717536419863036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3306868920701744</v>
+        <v>0.3262825950880073</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4232718973339188</v>
+        <v>0.4193799975757708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>308</v>
@@ -8594,19 +8594,19 @@
         <v>349078</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>315210</v>
+        <v>319336</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>379142</v>
+        <v>382056</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3625519546339209</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3273774068623946</v>
+        <v>0.3316619131076162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3937765218276496</v>
+        <v>0.3968033194525963</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>43539</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>31366</v>
+        <v>31892</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>57517</v>
+        <v>57589</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09152581974846472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06593584464940938</v>
+        <v>0.06704163757668698</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1209092608336968</v>
+        <v>0.1210603470183667</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -8644,19 +8644,19 @@
         <v>60857</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46933</v>
+        <v>47303</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77549</v>
+        <v>77804</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1249291943294294</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09634730400529171</v>
+        <v>0.09710648398022245</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1591970716862998</v>
+        <v>0.1597188123914068</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>91</v>
@@ -8665,19 +8665,19 @@
         <v>104396</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>86706</v>
+        <v>85362</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>126798</v>
+        <v>128253</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1084256081882225</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09005326419749235</v>
+        <v>0.08865710448445756</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1316924177791192</v>
+        <v>0.1332039825686548</v>
       </c>
     </row>
     <row r="28">
@@ -8772,16 +8772,16 @@
         <v>1029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10072</v>
+        <v>9260</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01222261887759446</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003115043510932493</v>
+        <v>0.003113477689719174</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03048306786252192</v>
+        <v>0.02802738833162556</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -8790,19 +8790,19 @@
         <v>18010</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10541</v>
+        <v>10606</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27595</v>
+        <v>28769</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0488309997673495</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0285807399516717</v>
+        <v>0.0287552725349982</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07481720552963063</v>
+        <v>0.07800150742767729</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -8811,19 +8811,19 @@
         <v>22049</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13896</v>
+        <v>13469</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34245</v>
+        <v>33070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03153270841944242</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01987321937375515</v>
+        <v>0.01926208133859816</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04897431477634793</v>
+        <v>0.04729398266378618</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>173877</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>155023</v>
+        <v>154257</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>192535</v>
+        <v>193415</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.526253051028661</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4691921724635075</v>
+        <v>0.4668725493292923</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5827228280091654</v>
+        <v>0.58538645932901</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>156</v>
@@ -8861,19 +8861,19 @@
         <v>166632</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>147605</v>
+        <v>146871</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>185438</v>
+        <v>186354</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4517854102725992</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4001963746908725</v>
+        <v>0.3982075064443704</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5027718209951347</v>
+        <v>0.5052563560384301</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>327</v>
@@ -8882,19 +8882,19 @@
         <v>340509</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>315527</v>
+        <v>314558</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>369213</v>
+        <v>369518</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4869730616923355</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4512453033252364</v>
+        <v>0.4498596336320883</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5280238233149157</v>
+        <v>0.5284589528048002</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>113877</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>97532</v>
+        <v>96735</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>132918</v>
+        <v>132631</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3446574337753346</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2951894105566426</v>
+        <v>0.2927782655057295</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4022882494730682</v>
+        <v>0.4014181869883886</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>137</v>
@@ -8932,19 +8932,19 @@
         <v>146013</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>127912</v>
+        <v>127513</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>165728</v>
+        <v>167218</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3958815830720071</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3468025541793162</v>
+        <v>0.3457221087962464</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4493344654226389</v>
+        <v>0.4533729259969964</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>248</v>
@@ -8953,19 +8953,19 @@
         <v>259890</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>233359</v>
+        <v>232594</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>287562</v>
+        <v>283848</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3716770092272648</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3337344337504909</v>
+        <v>0.3326400497986965</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4112520757003085</v>
+        <v>0.4059404403131179</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>38613</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27571</v>
+        <v>28345</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52138</v>
+        <v>54359</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1168668963184099</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08344664759135063</v>
+        <v>0.08578765763121138</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1578014555608789</v>
+        <v>0.164521907898082</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -9003,19 +9003,19 @@
         <v>38175</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28035</v>
+        <v>27910</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51905</v>
+        <v>51601</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1035020068880443</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0760110972961953</v>
+        <v>0.07567143803813889</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1407274106299977</v>
+        <v>0.1399038442150144</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>71</v>
@@ -9024,19 +9024,19 @@
         <v>76788</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>60681</v>
+        <v>60827</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>95655</v>
+        <v>96902</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1098172206609573</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08678166741977626</v>
+        <v>0.08699000311809338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1367990479405035</v>
+        <v>0.1385831013842585</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>7587</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3499</v>
+        <v>3310</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13067</v>
+        <v>13928</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03079222949006272</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01419815728129199</v>
+        <v>0.01343304006177494</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05302811025247915</v>
+        <v>0.05652585427237219</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -9149,19 +9149,19 @@
         <v>12499</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6629</v>
+        <v>5745</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23763</v>
+        <v>21776</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03220657865810892</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01708113963532543</v>
+        <v>0.01480333563193818</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0612287714879476</v>
+        <v>0.05610891573965823</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>18</v>
@@ -9170,19 +9170,19 @@
         <v>20087</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12857</v>
+        <v>13036</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>32464</v>
+        <v>32906</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03165732300472308</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02026365899843448</v>
+        <v>0.0205457124049158</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05116420786952092</v>
+        <v>0.05186073569096863</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>142848</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>127948</v>
+        <v>129262</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>156733</v>
+        <v>156332</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5797209541645868</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5192517689213266</v>
+        <v>0.5245840941416198</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.636072540701012</v>
+        <v>0.6344435697294413</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>142</v>
@@ -9220,19 +9220,19 @@
         <v>188757</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>166540</v>
+        <v>168247</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>211863</v>
+        <v>212231</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4863621361231555</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4291170953899767</v>
+        <v>0.4335142206995428</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5458988626869282</v>
+        <v>0.5468474421619007</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>312</v>
@@ -9241,19 +9241,19 @@
         <v>331605</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>306105</v>
+        <v>304823</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>359857</v>
+        <v>358595</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5226175812149157</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4824288785305844</v>
+        <v>0.4804088537271099</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5671442128096575</v>
+        <v>0.5651547487014379</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>78117</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>65348</v>
+        <v>65582</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>93757</v>
+        <v>91184</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3170225777400228</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2652008606217202</v>
+        <v>0.2661513385121657</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3804958081893712</v>
+        <v>0.3700522969762403</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>111</v>
@@ -9291,19 +9291,19 @@
         <v>146416</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>125074</v>
+        <v>122781</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>169469</v>
+        <v>167761</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3772645617984291</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3222737959928211</v>
+        <v>0.3163655609697713</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4366631790620668</v>
+        <v>0.4322631113771496</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>202</v>
@@ -9312,19 +9312,19 @@
         <v>224533</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>200704</v>
+        <v>197978</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>251305</v>
+        <v>251152</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3538698788850382</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3163144542371803</v>
+        <v>0.3120187130291563</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3960632788175156</v>
+        <v>0.395822289789812</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>17856</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11683</v>
+        <v>11234</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28705</v>
+        <v>26860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07246423860532768</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04741275621948986</v>
+        <v>0.04559060962960848</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1164927406535741</v>
+        <v>0.1090046621345693</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -9362,19 +9362,19 @@
         <v>40427</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>27565</v>
+        <v>27216</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>56003</v>
+        <v>55052</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1041667234203065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07102578322341817</v>
+        <v>0.07012694365287107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1443006843362875</v>
+        <v>0.1418493332961056</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -9383,19 +9383,19 @@
         <v>58283</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>44010</v>
+        <v>44434</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>77019</v>
+        <v>75741</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09185521689532301</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0693613453663047</v>
+        <v>0.07002930380454808</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1213839526028119</v>
+        <v>0.1193701998028703</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>142626</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>118081</v>
+        <v>121920</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>166383</v>
+        <v>170866</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04242676457260042</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03512537788304534</v>
+        <v>0.03626717541719293</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04949355108397693</v>
+        <v>0.05082708217801951</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>127</v>
@@ -9508,19 +9508,19 @@
         <v>132958</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>111270</v>
+        <v>111325</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>155244</v>
+        <v>158123</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03799803502385688</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.0317997089363701</v>
+        <v>0.03181568066339679</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04436712864220022</v>
+        <v>0.04519004377196456</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>261</v>
@@ -9529,19 +9529,19 @@
         <v>275584</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>241347</v>
+        <v>242169</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>307562</v>
+        <v>308757</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0401680624747963</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0351777986033709</v>
+        <v>0.03529757386019524</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04482906875245987</v>
+        <v>0.04500321492047471</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>2125928</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2065530</v>
+        <v>2074940</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2182189</v>
+        <v>2184367</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.632395618889099</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6144291912235764</v>
+        <v>0.6172285976753115</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6491315713671959</v>
+        <v>0.6497796020219785</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1905</v>
@@ -9579,19 +9579,19 @@
         <v>2002152</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1937555</v>
+        <v>1945239</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2058017</v>
+        <v>2065209</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.572194388466614</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5537333876484569</v>
+        <v>0.5559293482451462</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5881601595659538</v>
+        <v>0.5902153925965009</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3942</v>
@@ -9600,19 +9600,19 @@
         <v>4128079</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4048391</v>
+        <v>4047946</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4209149</v>
+        <v>4213533</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6016923113267229</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5900773686380145</v>
+        <v>0.5900125140397905</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6135088070130179</v>
+        <v>0.6141477728455549</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>882046</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>832724</v>
+        <v>827703</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>933132</v>
+        <v>930977</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2623805220882544</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.247708949494723</v>
+        <v>0.2462151905602724</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.277577105001753</v>
+        <v>0.2769358460625149</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>986</v>
@@ -9650,19 +9650,19 @@
         <v>1057103</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1002254</v>
+        <v>999855</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1108878</v>
+        <v>1110628</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.302109296044074</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2864339798056929</v>
+        <v>0.2857482674144897</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3169060835167783</v>
+        <v>0.3174061138757498</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1820</v>
@@ -9671,19 +9671,19 @@
         <v>1939149</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1869358</v>
+        <v>1869690</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2017400</v>
+        <v>2014656</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2826426455910666</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2724702209543362</v>
+        <v>0.2725186494214206</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2940482048041913</v>
+        <v>0.2936483121899032</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>211105</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>183298</v>
+        <v>180861</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>242571</v>
+        <v>241243</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06279709445004618</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05452534766502224</v>
+        <v>0.0538004630506518</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0721572261982239</v>
+        <v>0.07176215571818428</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>279</v>
@@ -9721,19 +9721,19 @@
         <v>306863</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>272241</v>
+        <v>270338</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>343772</v>
+        <v>341068</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08769828046545515</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07780364753734999</v>
+        <v>0.07725991163161192</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09824653377876677</v>
+        <v>0.09747379226388447</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>472</v>
@@ -9742,19 +9742,19 @@
         <v>517968</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>471043</v>
+        <v>473336</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>562502</v>
+        <v>560828</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07549698060741421</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06865733301216691</v>
+        <v>0.06899150055097462</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08198799871791718</v>
+        <v>0.08174400854232973</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>56692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37033</v>
+        <v>36235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84202</v>
+        <v>84723</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.139022265894835</v>
+        <v>0.1390222658948349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09081320340340154</v>
+        <v>0.08885561414615661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.206481271636126</v>
+        <v>0.2077588383312862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -10110,19 +10110,19 @@
         <v>53563</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36264</v>
+        <v>36485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74756</v>
+        <v>75236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1477560015407756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1000343985727266</v>
+        <v>0.1006449939382814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2062155961400731</v>
+        <v>0.2075412463488811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -10131,19 +10131,19 @@
         <v>110256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80868</v>
+        <v>81374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141089</v>
+        <v>143309</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.143132434728218</v>
+        <v>0.1431324347282179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1049821881304196</v>
+        <v>0.1056383134236956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1831600348219113</v>
+        <v>0.1860419861168549</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>282705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253694</v>
+        <v>251101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312464</v>
+        <v>310392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6932572804033418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6221146441921463</v>
+        <v>0.6157552055149849</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7662328364494295</v>
+        <v>0.7611509879952482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -10181,19 +10181,19 @@
         <v>240357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214155</v>
+        <v>214830</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266915</v>
+        <v>264101</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6630322411335076</v>
+        <v>0.6630322411335077</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5907534689544599</v>
+        <v>0.5926139301866485</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7362924749815176</v>
+        <v>0.7285304497682673</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -10202,19 +10202,19 @@
         <v>523063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482846</v>
+        <v>483774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>564059</v>
+        <v>562513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6790331248494248</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6268247050489393</v>
+        <v>0.6280297850215307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7322540433995861</v>
+        <v>0.730247680561084</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>57831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37040</v>
+        <v>36761</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83145</v>
+        <v>84223</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1418141826496345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09082942848499904</v>
+        <v>0.09014523583261484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2038910532205202</v>
+        <v>0.2065329472452947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -10252,19 +10252,19 @@
         <v>54376</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36266</v>
+        <v>39034</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73996</v>
+        <v>74526</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1499967741633152</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1000402215028107</v>
+        <v>0.1076763980025536</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2041202415264784</v>
+        <v>0.2055827108766085</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -10273,19 +10273,19 @@
         <v>112206</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84730</v>
+        <v>84115</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>146794</v>
+        <v>146199</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.145664978457894</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1099955953845449</v>
+        <v>0.109197407605692</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1905666772873484</v>
+        <v>0.1897939563100683</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>10564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2958</v>
+        <v>3256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25162</v>
+        <v>27353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02590627105218895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007254128321504309</v>
+        <v>0.007985293303507491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06170293145053751</v>
+        <v>0.06707465662238404</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -10323,19 +10323,19 @@
         <v>14216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6054</v>
+        <v>6547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28911</v>
+        <v>27711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03921498316240146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01669939081764478</v>
+        <v>0.01806084060206159</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07975223582689123</v>
+        <v>0.0764409136125952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -10344,19 +10344,19 @@
         <v>24780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12522</v>
+        <v>11870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43661</v>
+        <v>46567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03216946196446335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01625594910442471</v>
+        <v>0.0154096046032171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05667968590599691</v>
+        <v>0.06045230017602771</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>32405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20856</v>
+        <v>19527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50440</v>
+        <v>48562</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06795003734883077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04373383471877068</v>
+        <v>0.04094708902445487</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1057692588407867</v>
+        <v>0.1018315342083468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -10469,19 +10469,19 @@
         <v>37565</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25660</v>
+        <v>26606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51206</v>
+        <v>51040</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07496821397777997</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05120891365247934</v>
+        <v>0.05309631180544759</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1021915623604853</v>
+        <v>0.1018587656567353</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>53</v>
@@ -10490,19 +10490,19 @@
         <v>69970</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54604</v>
+        <v>51906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>93846</v>
+        <v>92493</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07154593248553662</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05583401613057672</v>
+        <v>0.0530753352943371</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09595920849223917</v>
+        <v>0.0945762671894404</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>287905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>260721</v>
+        <v>260269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>316252</v>
+        <v>315810</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6037141860666709</v>
+        <v>0.603714186066671</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.546710564169376</v>
+        <v>0.5457635176134291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6631560707526223</v>
+        <v>0.6622285476492717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>290</v>
@@ -10540,19 +10540,19 @@
         <v>315897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>293227</v>
+        <v>292622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>338535</v>
+        <v>338341</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.630429270371308</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5851870287540459</v>
+        <v>0.5839790257023407</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6756067519610602</v>
+        <v>0.6752185249879501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>483</v>
@@ -10561,19 +10561,19 @@
         <v>603803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>565630</v>
+        <v>564198</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>637287</v>
+        <v>641192</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6174021632730974</v>
+        <v>0.6174021632730973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.578369284127853</v>
+        <v>0.5769050253449421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6516407105580592</v>
+        <v>0.6556332475349997</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>134728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106341</v>
+        <v>110035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159646</v>
+        <v>161414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2825136992906636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2229878618373898</v>
+        <v>0.2307336820409081</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3347652701707604</v>
+        <v>0.3384726887236746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -10611,19 +10611,19 @@
         <v>117400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98509</v>
+        <v>99095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138523</v>
+        <v>136411</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.234292639653775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1965931719339285</v>
+        <v>0.1977609046044902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2764474761903152</v>
+        <v>0.2722330270989248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>184</v>
@@ -10632,19 +10632,19 @@
         <v>252128</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219259</v>
+        <v>221439</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>287125</v>
+        <v>290596</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2578067300873176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2241970807951661</v>
+        <v>0.2264267673609826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2935923672543387</v>
+        <v>0.2971412377099135</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>21852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12482</v>
+        <v>12349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36032</v>
+        <v>35154</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04582207729383469</v>
+        <v>0.0458220772938347</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02617295201089853</v>
+        <v>0.02589477101084021</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07555694140543855</v>
+        <v>0.07371541404279662</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -10682,19 +10682,19 @@
         <v>30220</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20367</v>
+        <v>20188</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44616</v>
+        <v>44561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06030987599713696</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04064619375366408</v>
+        <v>0.04028829005853897</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08903890820941701</v>
+        <v>0.08892867664862246</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -10703,19 +10703,19 @@
         <v>52072</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38326</v>
+        <v>38293</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70054</v>
+        <v>70740</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05324517415404838</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03918971273501581</v>
+        <v>0.03915506199660335</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07163161221486861</v>
+        <v>0.0723328915479698</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>29372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19533</v>
+        <v>20388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42782</v>
+        <v>43927</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0473107158762762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03146238265964183</v>
+        <v>0.03284029553040733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06890951097183431</v>
+        <v>0.07075502646312419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -10828,19 +10828,19 @@
         <v>35418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26864</v>
+        <v>26616</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46239</v>
+        <v>45996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05692891444082342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04317972682918156</v>
+        <v>0.04278193343399816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07432265278272791</v>
+        <v>0.07393232637183662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>71</v>
@@ -10849,19 +10849,19 @@
         <v>64790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>51267</v>
+        <v>50720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80868</v>
+        <v>80553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05212485428051121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04124510673197977</v>
+        <v>0.04080515450745712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0650597679789934</v>
+        <v>0.06480625115069642</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>375996</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>349241</v>
+        <v>346346</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>400836</v>
+        <v>400861</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6056283328948374</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5625332002916417</v>
+        <v>0.5578698395920071</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6456376141270167</v>
+        <v>0.6456778155522168</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>502</v>
@@ -10899,19 +10899,19 @@
         <v>371466</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>349822</v>
+        <v>350690</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>392346</v>
+        <v>392946</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5970783051651424</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5622892151360699</v>
+        <v>0.5636849070133348</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6306410527254762</v>
+        <v>0.6316046180882893</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>836</v>
@@ -10920,19 +10920,19 @@
         <v>747462</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>717019</v>
+        <v>710294</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>780316</v>
+        <v>777281</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6013488395391358</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5768564037636253</v>
+        <v>0.5714466085341304</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6277801256955291</v>
+        <v>0.625338872747993</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>173197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150048</v>
+        <v>151604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196163</v>
+        <v>199195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2789737797221173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2416863640890428</v>
+        <v>0.2441928857700009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3159658225367926</v>
+        <v>0.3208494797147587</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>238</v>
@@ -10970,19 +10970,19 @@
         <v>172142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155320</v>
+        <v>154868</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192444</v>
+        <v>191829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2766931621736546</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2496545113359155</v>
+        <v>0.2489275432187318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3093263521298053</v>
+        <v>0.3083382674917987</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>388</v>
@@ -10991,19 +10991,19 @@
         <v>345339</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>317397</v>
+        <v>314291</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374752</v>
+        <v>376560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2778322760973225</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2553521701406395</v>
+        <v>0.25285357618802</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3014960490462673</v>
+        <v>0.3029507375561722</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>42271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31568</v>
+        <v>30439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58590</v>
+        <v>56734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0680871715067692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05084737672411903</v>
+        <v>0.04902946131612389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09437279505857889</v>
+        <v>0.09138297656104924</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -11041,19 +11041,19 @@
         <v>43114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32987</v>
+        <v>34348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53730</v>
+        <v>55771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06929961822037961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05302133847606785</v>
+        <v>0.05521014083473906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08636307581006035</v>
+        <v>0.08964397633551086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -11062,19 +11062,19 @@
         <v>85385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69798</v>
+        <v>68267</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104858</v>
+        <v>102424</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06869403008303056</v>
+        <v>0.06869403008303057</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05615363761188143</v>
+        <v>0.05492207199553261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08436052722783277</v>
+        <v>0.08240208290508606</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>20904</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12558</v>
+        <v>12393</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31873</v>
+        <v>31395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02983604750019293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01792416142769388</v>
+        <v>0.0176889268087146</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04549275814426786</v>
+        <v>0.04481116761394963</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -11187,19 +11187,19 @@
         <v>30238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21973</v>
+        <v>22709</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39565</v>
+        <v>40201</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04105632278949745</v>
+        <v>0.04105632278949746</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02983443137320521</v>
+        <v>0.03083425878219317</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05372131433289516</v>
+        <v>0.05458373897337369</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -11208,19 +11208,19 @@
         <v>51141</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39458</v>
+        <v>39802</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65743</v>
+        <v>67038</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03558624354912936</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02745652941892006</v>
+        <v>0.02769600394958616</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04574679757202134</v>
+        <v>0.04664786639046149</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>360563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>330847</v>
+        <v>335343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>388228</v>
+        <v>388177</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5146359521579945</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4722221116821782</v>
+        <v>0.4786400426755965</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5541231838389779</v>
+        <v>0.5540502798662593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>601</v>
@@ -11258,19 +11258,19 @@
         <v>387092</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>366206</v>
+        <v>363234</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408853</v>
+        <v>407848</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5255863242781156</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4972274224527704</v>
+        <v>0.4931931749369515</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5551330554156996</v>
+        <v>0.5537691652310939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>950</v>
@@ -11279,19 +11279,19 @@
         <v>747654</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>715805</v>
+        <v>713478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>785717</v>
+        <v>783128</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5202478275243259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4980855768695517</v>
+        <v>0.4964666604964091</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5467332950337267</v>
+        <v>0.5449319262526581</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>255503</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>228919</v>
+        <v>227050</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>284058</v>
+        <v>279385</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3646834637836503</v>
+        <v>0.3646834637836502</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3267392461606846</v>
+        <v>0.32407182013984</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4054398925614417</v>
+        <v>0.3987694150394378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>390</v>
@@ -11329,19 +11329,19 @@
         <v>252326</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>232854</v>
+        <v>232711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>271605</v>
+        <v>274558</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3426042749256451</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3161644669963384</v>
+        <v>0.3159705002451441</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3687805402770664</v>
+        <v>0.3727896295297021</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>627</v>
@@ -11350,19 +11350,19 @@
         <v>507830</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>472878</v>
+        <v>472332</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>540516</v>
+        <v>539873</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.353368263286204</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3290475212461457</v>
+        <v>0.3286678387905623</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3761123113953049</v>
+        <v>0.375665492748387</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>63647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49132</v>
+        <v>49649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>79414</v>
+        <v>80803</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09084453655816224</v>
+        <v>0.09084453655816223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07012680657751301</v>
+        <v>0.07086461591975522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1133487229951597</v>
+        <v>0.1153316811945237</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -11400,19 +11400,19 @@
         <v>66839</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55052</v>
+        <v>55057</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78985</v>
+        <v>79630</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09075307800674177</v>
+        <v>0.09075307800674175</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07474859958935119</v>
+        <v>0.0747549490486574</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1072444605141092</v>
+        <v>0.1081195838148777</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -11421,19 +11421,19 @@
         <v>130486</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112243</v>
+        <v>110805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>149569</v>
+        <v>150651</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09079766564034074</v>
+        <v>0.09079766564034075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07810292330659743</v>
+        <v>0.0771026339823136</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1040758489321231</v>
+        <v>0.1048289821640294</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>25799</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16738</v>
+        <v>16717</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36438</v>
+        <v>37353</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04247788647504069</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02755888618377738</v>
+        <v>0.02752362789149769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05999456458938758</v>
+        <v>0.06150170456436185</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>43</v>
@@ -11546,19 +11546,19 @@
         <v>27339</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20788</v>
+        <v>20047</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36983</v>
+        <v>36555</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04505865986737963</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03426151947527656</v>
+        <v>0.03303997476659273</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06095279906855781</v>
+        <v>0.06024775236482196</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -11567,19 +11567,19 @@
         <v>53139</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41516</v>
+        <v>41150</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68119</v>
+        <v>66657</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04376763238127876</v>
+        <v>0.04376763238127875</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03419513466016424</v>
+        <v>0.03389343700860094</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05610644012060179</v>
+        <v>0.05490210262745077</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>283976</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>260394</v>
+        <v>262184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>308835</v>
+        <v>307551</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4675633766672196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4287351549889375</v>
+        <v>0.4316825723904643</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5084919202591027</v>
+        <v>0.5063782700203114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>461</v>
@@ -11617,19 +11617,19 @@
         <v>281333</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261581</v>
+        <v>262010</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>301075</v>
+        <v>299782</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4636710236944003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4311171397033712</v>
+        <v>0.4318239179849451</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4962080992258929</v>
+        <v>0.4940772300237035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>767</v>
@@ -11638,19 +11638,19 @@
         <v>565309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>535718</v>
+        <v>534212</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>596194</v>
+        <v>595183</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4656181666277681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.441245478257012</v>
+        <v>0.4400049604267582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4910565066336687</v>
+        <v>0.490223730771045</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>237000</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>214690</v>
+        <v>214292</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264457</v>
+        <v>259212</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3902166380109335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3534835402156219</v>
+        <v>0.3528295844016886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4354254943158285</v>
+        <v>0.4267895161221392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>391</v>
@@ -11688,19 +11688,19 @@
         <v>235723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>216639</v>
+        <v>217523</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>255531</v>
+        <v>254061</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3884998020910448</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3570474915177331</v>
+        <v>0.358503793235159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.421145670922162</v>
+        <v>0.4187231307611501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>652</v>
@@ -11709,19 +11709,19 @@
         <v>472722</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>444290</v>
+        <v>445174</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>501885</v>
+        <v>502971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3893586463306365</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3659405210780295</v>
+        <v>0.3666688372912705</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4133786765871879</v>
+        <v>0.4142728220508546</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>60579</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47289</v>
+        <v>47143</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>75850</v>
+        <v>75477</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09974209884680608</v>
+        <v>0.0997420988468061</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07786039301914173</v>
+        <v>0.07762023449214163</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1248856501713047</v>
+        <v>0.1242723819032114</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -11759,19 +11759,19 @@
         <v>62356</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51965</v>
+        <v>50963</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>75148</v>
+        <v>74261</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1027705143471753</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08564427895849896</v>
+        <v>0.08399334023601211</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1238538916266596</v>
+        <v>0.122390588862694</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>172</v>
@@ -11780,19 +11780,19 @@
         <v>122935</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>106580</v>
+        <v>104670</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>143152</v>
+        <v>140219</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1012555546603168</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08778459723309565</v>
+        <v>0.08621164249975749</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1179073976751659</v>
+        <v>0.1154920681453264</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>14508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8501</v>
+        <v>8978</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21672</v>
+        <v>22331</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03563904047681139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02088277195107984</v>
+        <v>0.02205566088944478</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05323831249736235</v>
+        <v>0.05485625681686462</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -11905,19 +11905,19 @@
         <v>11228</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7102</v>
+        <v>6558</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16807</v>
+        <v>16648</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02566612915198894</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01623441059388186</v>
+        <v>0.0149909709136764</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03841816154565149</v>
+        <v>0.03805527246122204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -11926,19 +11926,19 @@
         <v>25736</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19445</v>
+        <v>18405</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35696</v>
+        <v>35369</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03047317253545078</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02302432568604098</v>
+        <v>0.02179257334927858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04226680753945947</v>
+        <v>0.04187939281467867</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>210641</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>195368</v>
+        <v>193803</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>228531</v>
+        <v>227539</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5174441111411489</v>
+        <v>0.5174441111411487</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4799241398868221</v>
+        <v>0.4760811839011196</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5613919568312865</v>
+        <v>0.5589550893684214</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>411</v>
@@ -11976,19 +11976,19 @@
         <v>221299</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>206881</v>
+        <v>207131</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>236605</v>
+        <v>237585</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5058662013566403</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4729083526202501</v>
+        <v>0.4734781083864311</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5408540684025068</v>
+        <v>0.5430927177494307</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>706</v>
@@ -11997,19 +11997,19 @@
         <v>431940</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407532</v>
+        <v>409729</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>454933</v>
+        <v>455754</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5114468701113513</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4825453118212686</v>
+        <v>0.4851475337785293</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5386712988502712</v>
+        <v>0.5396436230034872</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>150704</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>133290</v>
+        <v>135399</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>166326</v>
+        <v>168499</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3702065163732002</v>
+        <v>0.3702065163732001</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3274283488041035</v>
+        <v>0.3326097684427444</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4085822526322188</v>
+        <v>0.4139214454727034</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>313</v>
@@ -12047,19 +12047,19 @@
         <v>163300</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149698</v>
+        <v>147724</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>178501</v>
+        <v>178072</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3732872374282958</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.342193248598382</v>
+        <v>0.337680365355816</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4080349623715269</v>
+        <v>0.4070527248012659</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>522</v>
@@ -12068,19 +12068,19 @@
         <v>314004</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>292198</v>
+        <v>293422</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>337361</v>
+        <v>335991</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3718022989502678</v>
+        <v>0.3718022989502679</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3459827409852631</v>
+        <v>0.3474313399306695</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3994588072884518</v>
+        <v>0.3978364753816564</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>31227</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23101</v>
+        <v>23120</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40969</v>
+        <v>40966</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07671033200883967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0567487540975351</v>
+        <v>0.05679402956617948</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1006416348488715</v>
+        <v>0.1006329115541237</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>81</v>
@@ -12118,19 +12118,19 @@
         <v>41638</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34400</v>
+        <v>33716</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51502</v>
+        <v>51800</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.09518043206307499</v>
+        <v>0.09518043206307496</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0786349743970311</v>
+        <v>0.07707025793582072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1177281793433824</v>
+        <v>0.1184087813961085</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>128</v>
@@ -12139,19 +12139,19 @@
         <v>72865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61090</v>
+        <v>60750</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>85619</v>
+        <v>84595</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08627765840293009</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0723348699948113</v>
+        <v>0.07193257511882811</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1013788270999508</v>
+        <v>0.1001658099181556</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>13189</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8034</v>
+        <v>7805</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20733</v>
+        <v>20885</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04264724975504224</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02597802062366613</v>
+        <v>0.0252387068792711</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06704289491189833</v>
+        <v>0.06753343330695721</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -12264,19 +12264,19 @@
         <v>21621</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>15609</v>
+        <v>15704</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29423</v>
+        <v>29716</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04675771277240477</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03375737371208826</v>
+        <v>0.0339626671950907</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06363141669938241</v>
+        <v>0.06426571807373946</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>57</v>
@@ -12285,19 +12285,19 @@
         <v>34809</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>26631</v>
+        <v>25729</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>45815</v>
+        <v>45001</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.04511035210567014</v>
+        <v>0.04511035210567015</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03451110177242615</v>
+        <v>0.03334216615244622</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05937212136042209</v>
+        <v>0.05831786267656842</v>
       </c>
     </row>
     <row r="35">
@@ -12314,19 +12314,19 @@
         <v>184314</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>169154</v>
+        <v>169797</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>197973</v>
+        <v>197716</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.595989045520861</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5469674833346764</v>
+        <v>0.5490480742917446</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6401558608467265</v>
+        <v>0.6393254438761269</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>465</v>
@@ -12335,19 +12335,19 @@
         <v>253985</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>238068</v>
+        <v>238778</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>270377</v>
+        <v>269585</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5492811107419697</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.514858689791952</v>
+        <v>0.5163948798412692</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5847306995123578</v>
+        <v>0.5830178222244935</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>732</v>
@@ -12356,19 +12356,19 @@
         <v>438299</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>417002</v>
+        <v>416971</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>460440</v>
+        <v>460191</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5680003679775021</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.5404012007570979</v>
+        <v>0.5403620645078329</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5966932911885534</v>
+        <v>0.5963705893706055</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>95975</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82755</v>
+        <v>82839</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109537</v>
+        <v>110224</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3103418723955446</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2675924623559418</v>
+        <v>0.2678638164238736</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3541948783697331</v>
+        <v>0.3564167295873198</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>310</v>
@@ -12406,19 +12406,19 @@
         <v>154099</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>138999</v>
+        <v>139668</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>169123</v>
+        <v>168513</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3332636124533616</v>
+        <v>0.3332636124533617</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3006061563794544</v>
+        <v>0.3020543639816461</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3657546518509578</v>
+        <v>0.3644346583125586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>458</v>
@@ -12427,19 +12427,19 @@
         <v>250075</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>232316</v>
+        <v>230264</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>271532</v>
+        <v>270958</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3240772086772264</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3010625690415622</v>
+        <v>0.2984044701261359</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3518842671283477</v>
+        <v>0.35113971809104</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>15779</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10681</v>
+        <v>10671</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23119</v>
+        <v>22928</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05102183232855225</v>
+        <v>0.05102183232855224</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03453872999225391</v>
+        <v>0.03450557812663115</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07475662058732881</v>
+        <v>0.07414046539300248</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -12477,19 +12477,19 @@
         <v>32690</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25645</v>
+        <v>25469</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>41629</v>
+        <v>40455</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07069756403226386</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05546077520528146</v>
+        <v>0.05508026769917316</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.09002958316711383</v>
+        <v>0.08748950542942591</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>87</v>
@@ -12498,19 +12498,19 @@
         <v>48469</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38791</v>
+        <v>39578</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>59525</v>
+        <v>59464</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.06281207123960135</v>
+        <v>0.06281207123960136</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05026983679880301</v>
+        <v>0.05128950829738181</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07713929092240433</v>
+        <v>0.07706015913798803</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>192869</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>162150</v>
+        <v>160333</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>229340</v>
+        <v>233447</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05463975332012207</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0459370559424195</v>
+        <v>0.04542229238242832</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06497195982581029</v>
+        <v>0.06613564388905384</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>254</v>
@@ -12623,19 +12623,19 @@
         <v>216972</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>189917</v>
+        <v>191103</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>247149</v>
+        <v>248973</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.05818753745345984</v>
+        <v>0.05818753745345983</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.05093202763597593</v>
+        <v>0.05125002980649661</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06628044134971843</v>
+        <v>0.06676950215176893</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>401</v>
@@ -12644,19 +12644,19 @@
         <v>409841</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>368592</v>
+        <v>365400</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>458616</v>
+        <v>452872</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.056462280915702</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.05077954608329372</v>
+        <v>0.05033986222505719</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.06318180817930914</v>
+        <v>0.06239053624746822</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>1986101</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1922789</v>
+        <v>1917760</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2054488</v>
+        <v>2053073</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5626623654413567</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5447258557074953</v>
+        <v>0.5433012518389742</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5820362153771308</v>
+        <v>0.5816355604314615</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2870</v>
@@ -12694,19 +12694,19 @@
         <v>2071429</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2014334</v>
+        <v>2009858</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2123932</v>
+        <v>2120593</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.5555154823551961</v>
+        <v>0.555515482355196</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5402036857116664</v>
+        <v>0.5390032930727393</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5695956713748012</v>
+        <v>0.5687002813026747</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4738</v>
@@ -12715,19 +12715,19 @@
         <v>4057531</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3972993</v>
+        <v>3969540</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4140302</v>
+        <v>4145932</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5589909493806908</v>
+        <v>0.5589909493806909</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5473444967577579</v>
+        <v>0.5468688249152545</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5703940477482603</v>
+        <v>0.5711696222145244</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>1104938</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1048495</v>
+        <v>1042869</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1167422</v>
+        <v>1166961</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3130288791495034</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2970384936091997</v>
+        <v>0.2954446274839291</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3307305342131249</v>
+        <v>0.3305998451752552</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1782</v>
@@ -12765,19 +12765,19 @@
         <v>1149366</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1103968</v>
+        <v>1102204</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1202151</v>
+        <v>1203272</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3082368402473872</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2960618207193832</v>
+        <v>0.2955888026696935</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3223926447364593</v>
+        <v>0.3226931899611754</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2884</v>
@@ -12786,19 +12786,19 @@
         <v>2254305</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2177331</v>
+        <v>2179358</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2335554</v>
+        <v>2337536</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.310567167046974</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2999628271696355</v>
+        <v>0.3002420188065332</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3217605821598222</v>
+        <v>0.322033619981424</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>245920</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>216345</v>
+        <v>215870</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>277502</v>
+        <v>279174</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.06966900208901781</v>
+        <v>0.0696690020890178</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06129064915494657</v>
+        <v>0.06115590498637889</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07861638471324149</v>
+        <v>0.07908995651265284</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>447</v>
@@ -12836,19 +12836,19 @@
         <v>291074</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>262898</v>
+        <v>263808</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>317347</v>
+        <v>322182</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07806013994395684</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07050396404329344</v>
+        <v>0.07074798400264044</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0851060996854887</v>
+        <v>0.08640262526114892</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>703</v>
@@ -12857,19 +12857,19 @@
         <v>536994</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>498884</v>
+        <v>496692</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>585341</v>
+        <v>581888</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07397960265663296</v>
+        <v>0.07397960265663299</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06872934166913566</v>
+        <v>0.06842740149150905</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08064022301751045</v>
+        <v>0.08016458044609608</v>
       </c>
     </row>
     <row r="43">
